--- a/Образец №1.xlsx
+++ b/Образец №1.xlsx
@@ -361,7 +361,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="yellowGreen"/>
+                <a:prstClr val="forestGreen"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -695,7 +695,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="red"/>
+                <a:prstClr val="dkKhaki"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1364,7 +1364,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="thistle"/>
+                <a:prstClr val="paleTurquoise"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1538,151 +1538,151 @@
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>298.0</c:v>
+                  <c:v>366.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>385.0</c:v>
+                  <c:v>440.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>530.0</c:v>
+                  <c:v>513.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543.0</c:v>
+                  <c:v>545.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>545.0</c:v>
+                  <c:v>571.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>546.0</c:v>
+                  <c:v>589.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>597.0</c:v>
+                  <c:v>594.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>643.0</c:v>
+                  <c:v>599.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>700.0</c:v>
+                  <c:v>604.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>705.0</c:v>
+                  <c:v>609.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>710.0</c:v>
+                  <c:v>614.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>714.0</c:v>
+                  <c:v>618.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>717.0</c:v>
+                  <c:v>636.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>719.0</c:v>
+                  <c:v>667.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>722.0</c:v>
+                  <c:v>671.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>765.0</c:v>
+                  <c:v>692.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>784.0</c:v>
+                  <c:v>708.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>724.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>733.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>739.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>745.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>775.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>778.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>781.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>785.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>801.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>805.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
+                  <c:v>788.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>794.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>804.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>807.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>808.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>811.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>815.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>818.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>823.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>828.0</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>833.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>838.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>844.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
+                  <c:v>835.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>836.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>846.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>848.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>854.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>860.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>866.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>867.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>868.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>869.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>873.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>878.0</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>882.0</c:v>
+                  <c:v>849.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>886.0</c:v>
+                  <c:v>851.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>853.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>862.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>871.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>885.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>889.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>889.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>889.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>891.0</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>895.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>903.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>906.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>908.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>913.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>917.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>919.0</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>925.0</c:v>
+                  <c:v>893.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,6 +1823,340 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
+                <a:prstClr val="sandyBrown"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Избыточное давление'!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Избыточное давление'!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Минимальный допуск избыточного давления</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
                 <a:prstClr val="cornflowerBlue"/>
               </a:solidFill>
             </a:ln>
@@ -1990,340 +2324,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Избыточное давление'!$B$2:$B$51</c:f>
-              <c:numCache>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="false"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Минимальный допуск избыточного давления</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:prstClr val="slateBlue"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Избыточное давление'!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'Избыточное давление'!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:ptCount val="50"/>
@@ -2491,7 +2491,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="purple"/>
+                <a:prstClr val="dkGoldenrod"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2662,154 +2662,154 @@
               <c:numCache>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>-0.73</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.7</c:v>
+                  <c:v>-1.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>-1.42</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.39</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.91</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.46</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="26">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>1.58</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.44</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.59</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.29</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.59</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.58</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.24</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.77</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.92</c:v>
+                  <c:v>-0.23</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.38</c:v>
+                  <c:v>-0.28</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95</c:v>
+                  <c:v>-0.94</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.43</c:v>
+                  <c:v>-0.71</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.7</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.7</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-0.21</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.1</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.59</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.74</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.42</c:v>
+                  <c:v>-1.42</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.4</c:v>
+                  <c:v>-0.86</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.41</c:v>
+                  <c:v>-0.26</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.76</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.89</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.84</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,7 +2950,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="medSpringGreen"/>
+                <a:prstClr val="slateBlue"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -3284,7 +3284,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="dkBlue"/>
+                <a:prstClr val="dkGreen"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -3458,151 +3458,151 @@
                   <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.031</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.035</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.039</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.045</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.051</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.057</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.063</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.066</c:v>
+                  <c:v>0.022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.075</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.09</c:v>
+                  <c:v>0.037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.091</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.092</c:v>
+                  <c:v>0.053</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.098</c:v>
+                  <c:v>0.055</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1</c:v>
+                  <c:v>0.058</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.116</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.122</c:v>
+                  <c:v>0.081</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.128</c:v>
+                  <c:v>0.082</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.138</c:v>
+                  <c:v>0.082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.139</c:v>
+                  <c:v>0.082</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.139</c:v>
+                  <c:v>0.082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.142</c:v>
+                  <c:v>0.083</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.153</c:v>
+                  <c:v>0.084</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.163</c:v>
+                  <c:v>0.085</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.235</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.258</c:v>
+                  <c:v>0.168</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.38</c:v>
+                  <c:v>0.171</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.487</c:v>
+                  <c:v>0.186</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.594</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7</c:v>
+                  <c:v>0.257</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.864</c:v>
+                  <c:v>0.262</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.877</c:v>
+                  <c:v>0.263</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.915</c:v>
+                  <c:v>0.263</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.133</c:v>
+                  <c:v>0.265</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.155</c:v>
+                  <c:v>0.268</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.236</c:v>
+                  <c:v>0.268</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.302</c:v>
+                  <c:v>0.298</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.313</c:v>
+                  <c:v>0.319</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.324</c:v>
+                  <c:v>0.357</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.357</c:v>
+                  <c:v>0.387</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.371</c:v>
+                  <c:v>0.417</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.412</c:v>
+                  <c:v>0.446</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.433</c:v>
+                  <c:v>0.446</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.453</c:v>
+                  <c:v>0.448</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.475</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.508</c:v>
+                  <c:v>0.451</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.54</c:v>
+                  <c:v>0.452</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.557</c:v>
+                  <c:v>0.459</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.56</c:v>
+                  <c:v>0.466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3618,7 +3618,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="saddleBrown"/>
+                <a:prstClr val="olive"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -3792,151 +3792,151 @@
                   <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.031</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.035</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.039</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.045</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.051</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.057</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.063</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.066</c:v>
+                  <c:v>0.022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.075</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.09</c:v>
+                  <c:v>0.037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.091</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.092</c:v>
+                  <c:v>0.053</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.098</c:v>
+                  <c:v>0.055</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1</c:v>
+                  <c:v>0.058</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.116</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.122</c:v>
+                  <c:v>0.081</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.128</c:v>
+                  <c:v>0.082</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.138</c:v>
+                  <c:v>0.082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.139</c:v>
+                  <c:v>0.082</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.139</c:v>
+                  <c:v>0.082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.142</c:v>
+                  <c:v>0.083</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.153</c:v>
+                  <c:v>0.084</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.163</c:v>
+                  <c:v>0.085</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.235</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.258</c:v>
+                  <c:v>0.168</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.38</c:v>
+                  <c:v>0.171</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.487</c:v>
+                  <c:v>0.186</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.594</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7</c:v>
+                  <c:v>0.257</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.864</c:v>
+                  <c:v>0.262</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.877</c:v>
+                  <c:v>0.263</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.915</c:v>
+                  <c:v>0.263</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.133</c:v>
+                  <c:v>0.265</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.155</c:v>
+                  <c:v>0.268</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.236</c:v>
+                  <c:v>0.268</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.302</c:v>
+                  <c:v>0.298</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.313</c:v>
+                  <c:v>0.319</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.324</c:v>
+                  <c:v>0.357</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.357</c:v>
+                  <c:v>0.387</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.371</c:v>
+                  <c:v>0.417</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.412</c:v>
+                  <c:v>0.446</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.433</c:v>
+                  <c:v>0.446</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.453</c:v>
+                  <c:v>0.448</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.475</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.508</c:v>
+                  <c:v>0.451</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.54</c:v>
+                  <c:v>0.452</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.557</c:v>
+                  <c:v>0.459</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.56</c:v>
+                  <c:v>0.466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4077,7 +4077,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="ltGray"/>
+                <a:prstClr val="medAquamarine"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -4251,151 +4251,151 @@
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>39.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>42.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.0</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.0</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.0</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54.0</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.0</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>60.0</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>81.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>84.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>84.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>95.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>101.0</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>104.0</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>104.0</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>104.0</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>104.0</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>105.0</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>105.0</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>105.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>105.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>105.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>105.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>106.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>106.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>106.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>106.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>106.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4411,7 +4411,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="saddleBrown"/>
+                <a:prstClr val="chocolate"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -4585,151 +4585,151 @@
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>39.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>42.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.0</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.0</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.0</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54.0</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.0</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>60.0</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>81.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>84.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>84.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>95.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>101.0</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>104.0</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>104.0</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>104.0</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>104.0</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>105.0</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>105.0</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>105.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>105.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>105.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>105.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>106.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>106.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>106.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>106.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>106.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4745,7 +4745,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="medPurple"/>
+                <a:prstClr val="pink"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -5079,7 +5079,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="cyan"/>
+                <a:prstClr val="dodgerBlue"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -5538,7 +5538,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="paleTurquoise"/>
+                <a:prstClr val="plum"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -5709,154 +5709,154 @@
               <c:numCache>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>20.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>58.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>60.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>61.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>71.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>74.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>77.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>85.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>88.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>90.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>91.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>92.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>93.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5872,7 +5872,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="aquamarine"/>
+                <a:prstClr val="orangeRed"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -6043,154 +6043,154 @@
               <c:numCache>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>20.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>58.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>60.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>61.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>71.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>74.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>77.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>85.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>88.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>90.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>91.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>92.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>93.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>93.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6206,7 +6206,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="yellowGreen"/>
+                <a:prstClr val="orchid"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -6665,7 +6665,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="ltSteelBlue"/>
+                <a:prstClr val="paleTurquoise"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -6836,154 +6836,154 @@
               <c:numCache>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>20.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="23">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>35.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="33">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>103.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>156.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>177.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>190.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>203.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>203.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>203.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>207.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>216.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>216.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>221.0</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>235.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>242.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>243.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>250.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>257.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>257.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6999,7 +6999,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="blueViolet"/>
+                <a:prstClr val="medVioletRed"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -7170,154 +7170,154 @@
               <c:numCache>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>20.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="23">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>35.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="33">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>103.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>156.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>177.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>190.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>203.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>203.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>203.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>207.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>216.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>216.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>221.0</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>235.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>242.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>243.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>250.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>257.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>257.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7333,7 +7333,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:prstClr val="maroon"/>
+                <a:prstClr val="teal"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -8360,10 +8360,10 @@
         <v>329.0</v>
       </c>
       <c r="H3" t="n" s="3">
-        <v>298.0</v>
+        <v>366.0</v>
       </c>
       <c r="I3" t="n" s="4">
-        <v>298.0</v>
+        <v>366.0</v>
       </c>
     </row>
     <row r="4">
@@ -8389,10 +8389,10 @@
         <v>425.0</v>
       </c>
       <c r="H4" t="n" s="3">
-        <v>385.0</v>
+        <v>440.0</v>
       </c>
       <c r="I4" t="n" s="4">
-        <v>385.0</v>
+        <v>440.0</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +8418,10 @@
         <v>482.0</v>
       </c>
       <c r="H5" t="n" s="3">
-        <v>530.0</v>
+        <v>513.0</v>
       </c>
       <c r="I5" t="n" s="4">
-        <v>530.0</v>
+        <v>513.0</v>
       </c>
     </row>
     <row r="6">
@@ -8447,10 +8447,10 @@
         <v>524.0</v>
       </c>
       <c r="H6" t="n" s="3">
-        <v>543.0</v>
+        <v>545.0</v>
       </c>
       <c r="I6" t="n" s="4">
-        <v>543.0</v>
+        <v>545.0</v>
       </c>
     </row>
     <row r="7">
@@ -8476,10 +8476,10 @@
         <v>556.0</v>
       </c>
       <c r="H7" t="n" s="3">
-        <v>545.0</v>
+        <v>571.0</v>
       </c>
       <c r="I7" t="n" s="4">
-        <v>545.0</v>
+        <v>571.0</v>
       </c>
     </row>
     <row r="8">
@@ -8505,10 +8505,10 @@
         <v>583.0</v>
       </c>
       <c r="H8" t="n" s="3">
-        <v>546.0</v>
+        <v>589.0</v>
       </c>
       <c r="I8" t="n" s="4">
-        <v>546.0</v>
+        <v>589.0</v>
       </c>
     </row>
     <row r="9">
@@ -8534,10 +8534,10 @@
         <v>606.0</v>
       </c>
       <c r="H9" t="n" s="3">
-        <v>597.0</v>
+        <v>594.0</v>
       </c>
       <c r="I9" t="n" s="4">
-        <v>597.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="10">
@@ -8563,10 +8563,10 @@
         <v>625.0</v>
       </c>
       <c r="H10" t="n" s="3">
-        <v>643.0</v>
+        <v>599.0</v>
       </c>
       <c r="I10" t="n" s="4">
-        <v>643.0</v>
+        <v>599.0</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         <v>643.0</v>
       </c>
       <c r="H11" t="n" s="3">
-        <v>700.0</v>
+        <v>604.0</v>
       </c>
       <c r="I11" t="n" s="4">
-        <v>700.0</v>
+        <v>604.0</v>
       </c>
     </row>
     <row r="12">
@@ -8621,10 +8621,10 @@
         <v>658.0</v>
       </c>
       <c r="H12" t="n" s="3">
-        <v>705.0</v>
+        <v>609.0</v>
       </c>
       <c r="I12" t="n" s="4">
-        <v>705.0</v>
+        <v>609.0</v>
       </c>
     </row>
     <row r="13">
@@ -8650,10 +8650,10 @@
         <v>673.0</v>
       </c>
       <c r="H13" t="n" s="3">
-        <v>710.0</v>
+        <v>614.0</v>
       </c>
       <c r="I13" t="n" s="4">
-        <v>710.0</v>
+        <v>614.0</v>
       </c>
     </row>
     <row r="14">
@@ -8679,10 +8679,10 @@
         <v>685.0</v>
       </c>
       <c r="H14" t="n" s="3">
-        <v>714.0</v>
+        <v>618.0</v>
       </c>
       <c r="I14" t="n" s="4">
-        <v>714.0</v>
+        <v>618.0</v>
       </c>
     </row>
     <row r="15">
@@ -8708,10 +8708,10 @@
         <v>697.0</v>
       </c>
       <c r="H15" t="n" s="3">
-        <v>717.0</v>
+        <v>636.0</v>
       </c>
       <c r="I15" t="n" s="4">
-        <v>717.0</v>
+        <v>636.0</v>
       </c>
     </row>
     <row r="16">
@@ -8737,10 +8737,10 @@
         <v>708.0</v>
       </c>
       <c r="H16" t="n" s="3">
-        <v>719.0</v>
+        <v>667.0</v>
       </c>
       <c r="I16" t="n" s="4">
-        <v>719.0</v>
+        <v>667.0</v>
       </c>
     </row>
     <row r="17">
@@ -8766,10 +8766,10 @@
         <v>719.0</v>
       </c>
       <c r="H17" t="n" s="3">
-        <v>722.0</v>
+        <v>671.0</v>
       </c>
       <c r="I17" t="n" s="4">
-        <v>722.0</v>
+        <v>671.0</v>
       </c>
     </row>
     <row r="18">
@@ -8795,10 +8795,10 @@
         <v>728.0</v>
       </c>
       <c r="H18" t="n" s="3">
-        <v>765.0</v>
+        <v>692.0</v>
       </c>
       <c r="I18" t="n" s="4">
-        <v>765.0</v>
+        <v>692.0</v>
       </c>
     </row>
     <row r="19">
@@ -8824,10 +8824,10 @@
         <v>737.0</v>
       </c>
       <c r="H19" t="n" s="3">
-        <v>784.0</v>
+        <v>708.0</v>
       </c>
       <c r="I19" t="n" s="4">
-        <v>784.0</v>
+        <v>708.0</v>
       </c>
     </row>
     <row r="20">
@@ -8853,10 +8853,10 @@
         <v>746.0</v>
       </c>
       <c r="H20" t="n" s="3">
-        <v>785.0</v>
+        <v>724.0</v>
       </c>
       <c r="I20" t="n" s="4">
-        <v>785.0</v>
+        <v>724.0</v>
       </c>
     </row>
     <row r="21">
@@ -8882,10 +8882,10 @@
         <v>754.0</v>
       </c>
       <c r="H21" t="n" s="3">
-        <v>801.0</v>
+        <v>733.0</v>
       </c>
       <c r="I21" t="n" s="4">
-        <v>801.0</v>
+        <v>733.0</v>
       </c>
     </row>
     <row r="22">
@@ -8911,10 +8911,10 @@
         <v>761.0</v>
       </c>
       <c r="H22" t="n" s="3">
-        <v>805.0</v>
+        <v>739.0</v>
       </c>
       <c r="I22" t="n" s="4">
-        <v>805.0</v>
+        <v>739.0</v>
       </c>
     </row>
     <row r="23">
@@ -8940,10 +8940,10 @@
         <v>769.0</v>
       </c>
       <c r="H23" t="n" s="3">
-        <v>808.0</v>
+        <v>745.0</v>
       </c>
       <c r="I23" t="n" s="4">
-        <v>808.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="24">
@@ -8969,10 +8969,10 @@
         <v>776.0</v>
       </c>
       <c r="H24" t="n" s="3">
-        <v>811.0</v>
+        <v>768.0</v>
       </c>
       <c r="I24" t="n" s="4">
-        <v>811.0</v>
+        <v>768.0</v>
       </c>
     </row>
     <row r="25">
@@ -8998,10 +8998,10 @@
         <v>782.0</v>
       </c>
       <c r="H25" t="n" s="3">
-        <v>815.0</v>
+        <v>775.0</v>
       </c>
       <c r="I25" t="n" s="4">
-        <v>815.0</v>
+        <v>775.0</v>
       </c>
     </row>
     <row r="26">
@@ -9027,10 +9027,10 @@
         <v>789.0</v>
       </c>
       <c r="H26" t="n" s="3">
-        <v>818.0</v>
+        <v>778.0</v>
       </c>
       <c r="I26" t="n" s="4">
-        <v>818.0</v>
+        <v>778.0</v>
       </c>
     </row>
     <row r="27">
@@ -9056,10 +9056,10 @@
         <v>795.0</v>
       </c>
       <c r="H27" t="n" s="3">
-        <v>823.0</v>
+        <v>781.0</v>
       </c>
       <c r="I27" t="n" s="4">
-        <v>823.0</v>
+        <v>781.0</v>
       </c>
     </row>
     <row r="28">
@@ -9085,10 +9085,10 @@
         <v>800.0</v>
       </c>
       <c r="H28" t="n" s="3">
-        <v>828.0</v>
+        <v>785.0</v>
       </c>
       <c r="I28" t="n" s="4">
-        <v>828.0</v>
+        <v>785.0</v>
       </c>
     </row>
     <row r="29">
@@ -9114,10 +9114,10 @@
         <v>806.0</v>
       </c>
       <c r="H29" t="n" s="3">
-        <v>833.0</v>
+        <v>788.0</v>
       </c>
       <c r="I29" t="n" s="4">
-        <v>833.0</v>
+        <v>788.0</v>
       </c>
     </row>
     <row r="30">
@@ -9143,10 +9143,10 @@
         <v>812.0</v>
       </c>
       <c r="H30" t="n" s="3">
-        <v>838.0</v>
+        <v>794.0</v>
       </c>
       <c r="I30" t="n" s="4">
-        <v>838.0</v>
+        <v>794.0</v>
       </c>
     </row>
     <row r="31">
@@ -9172,10 +9172,10 @@
         <v>817.0</v>
       </c>
       <c r="H31" t="n" s="3">
-        <v>844.0</v>
+        <v>804.0</v>
       </c>
       <c r="I31" t="n" s="4">
-        <v>844.0</v>
+        <v>804.0</v>
       </c>
     </row>
     <row r="32">
@@ -9201,10 +9201,10 @@
         <v>822.0</v>
       </c>
       <c r="H32" t="n" s="3">
-        <v>848.0</v>
+        <v>807.0</v>
       </c>
       <c r="I32" t="n" s="4">
-        <v>848.0</v>
+        <v>807.0</v>
       </c>
     </row>
     <row r="33">
@@ -9230,10 +9230,10 @@
         <v>827.0</v>
       </c>
       <c r="H33" t="n" s="3">
-        <v>854.0</v>
+        <v>808.0</v>
       </c>
       <c r="I33" t="n" s="4">
-        <v>854.0</v>
+        <v>808.0</v>
       </c>
     </row>
     <row r="34">
@@ -9259,10 +9259,10 @@
         <v>831.0</v>
       </c>
       <c r="H34" t="n" s="3">
-        <v>860.0</v>
+        <v>810.0</v>
       </c>
       <c r="I34" t="n" s="4">
-        <v>860.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="35">
@@ -9288,10 +9288,10 @@
         <v>836.0</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>866.0</v>
+        <v>810.0</v>
       </c>
       <c r="I35" t="n" s="4">
-        <v>866.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="36">
@@ -9317,10 +9317,10 @@
         <v>840.0</v>
       </c>
       <c r="H36" t="n" s="3">
-        <v>867.0</v>
+        <v>828.0</v>
       </c>
       <c r="I36" t="n" s="4">
-        <v>867.0</v>
+        <v>828.0</v>
       </c>
     </row>
     <row r="37">
@@ -9346,10 +9346,10 @@
         <v>845.0</v>
       </c>
       <c r="H37" t="n" s="3">
-        <v>868.0</v>
+        <v>835.0</v>
       </c>
       <c r="I37" t="n" s="4">
-        <v>868.0</v>
+        <v>835.0</v>
       </c>
     </row>
     <row r="38">
@@ -9375,10 +9375,10 @@
         <v>849.0</v>
       </c>
       <c r="H38" t="n" s="3">
-        <v>869.0</v>
+        <v>836.0</v>
       </c>
       <c r="I38" t="n" s="4">
-        <v>869.0</v>
+        <v>836.0</v>
       </c>
     </row>
     <row r="39">
@@ -9404,10 +9404,10 @@
         <v>853.0</v>
       </c>
       <c r="H39" t="n" s="3">
-        <v>873.0</v>
+        <v>846.0</v>
       </c>
       <c r="I39" t="n" s="4">
-        <v>873.0</v>
+        <v>846.0</v>
       </c>
     </row>
     <row r="40">
@@ -9433,10 +9433,10 @@
         <v>857.0</v>
       </c>
       <c r="H40" t="n" s="3">
-        <v>878.0</v>
+        <v>848.0</v>
       </c>
       <c r="I40" t="n" s="4">
-        <v>878.0</v>
+        <v>848.0</v>
       </c>
     </row>
     <row r="41">
@@ -9462,10 +9462,10 @@
         <v>861.0</v>
       </c>
       <c r="H41" t="n" s="3">
-        <v>882.0</v>
+        <v>849.0</v>
       </c>
       <c r="I41" t="n" s="4">
-        <v>882.0</v>
+        <v>849.0</v>
       </c>
     </row>
     <row r="42">
@@ -9491,10 +9491,10 @@
         <v>865.0</v>
       </c>
       <c r="H42" t="n" s="3">
-        <v>886.0</v>
+        <v>851.0</v>
       </c>
       <c r="I42" t="n" s="4">
-        <v>886.0</v>
+        <v>851.0</v>
       </c>
     </row>
     <row r="43">
@@ -9520,10 +9520,10 @@
         <v>868.0</v>
       </c>
       <c r="H43" t="n" s="3">
-        <v>891.0</v>
+        <v>853.0</v>
       </c>
       <c r="I43" t="n" s="4">
-        <v>891.0</v>
+        <v>853.0</v>
       </c>
     </row>
     <row r="44">
@@ -9549,10 +9549,10 @@
         <v>872.0</v>
       </c>
       <c r="H44" t="n" s="3">
-        <v>895.0</v>
+        <v>862.0</v>
       </c>
       <c r="I44" t="n" s="4">
-        <v>895.0</v>
+        <v>862.0</v>
       </c>
     </row>
     <row r="45">
@@ -9578,10 +9578,10 @@
         <v>876.0</v>
       </c>
       <c r="H45" t="n" s="3">
-        <v>903.0</v>
+        <v>871.0</v>
       </c>
       <c r="I45" t="n" s="4">
-        <v>903.0</v>
+        <v>871.0</v>
       </c>
     </row>
     <row r="46">
@@ -9607,10 +9607,10 @@
         <v>879.0</v>
       </c>
       <c r="H46" t="n" s="3">
-        <v>906.0</v>
+        <v>885.0</v>
       </c>
       <c r="I46" t="n" s="4">
-        <v>906.0</v>
+        <v>885.0</v>
       </c>
     </row>
     <row r="47">
@@ -9636,10 +9636,10 @@
         <v>882.0</v>
       </c>
       <c r="H47" t="n" s="3">
-        <v>908.0</v>
+        <v>889.0</v>
       </c>
       <c r="I47" t="n" s="4">
-        <v>908.0</v>
+        <v>889.0</v>
       </c>
     </row>
     <row r="48">
@@ -9665,10 +9665,10 @@
         <v>886.0</v>
       </c>
       <c r="H48" t="n" s="3">
-        <v>913.0</v>
+        <v>889.0</v>
       </c>
       <c r="I48" t="n" s="4">
-        <v>913.0</v>
+        <v>889.0</v>
       </c>
     </row>
     <row r="49">
@@ -9694,10 +9694,10 @@
         <v>889.0</v>
       </c>
       <c r="H49" t="n" s="3">
-        <v>917.0</v>
+        <v>889.0</v>
       </c>
       <c r="I49" t="n" s="4">
-        <v>917.0</v>
+        <v>889.0</v>
       </c>
     </row>
     <row r="50">
@@ -9723,10 +9723,10 @@
         <v>892.0</v>
       </c>
       <c r="H50" t="n" s="3">
-        <v>919.0</v>
+        <v>891.0</v>
       </c>
       <c r="I50" t="n" s="4">
-        <v>919.0</v>
+        <v>891.0</v>
       </c>
     </row>
     <row r="51">
@@ -9752,10 +9752,10 @@
         <v>895.0</v>
       </c>
       <c r="H51" t="n" s="3">
-        <v>925.0</v>
+        <v>893.0</v>
       </c>
       <c r="I51" t="n" s="4">
-        <v>925.0</v>
+        <v>893.0</v>
       </c>
     </row>
   </sheetData>
@@ -9800,10 +9800,10 @@
         <v>-2.0</v>
       </c>
       <c r="D2" t="n" s="7">
-        <v>9.27</v>
+        <v>8.6</v>
       </c>
       <c r="E2" t="n" s="7">
-        <v>-0.73</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="3">
@@ -9817,10 +9817,10 @@
         <v>-2.0</v>
       </c>
       <c r="D3" t="n" s="7">
-        <v>9.3</v>
+        <v>8.42</v>
       </c>
       <c r="E3" t="n" s="7">
-        <v>-0.7</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="4">
@@ -9834,10 +9834,10 @@
         <v>-2.0</v>
       </c>
       <c r="D4" t="n" s="7">
-        <v>8.58</v>
+        <v>10.94</v>
       </c>
       <c r="E4" t="n" s="7">
-        <v>-1.42</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="5">
@@ -9851,10 +9851,10 @@
         <v>-2.0</v>
       </c>
       <c r="D5" t="n" s="7">
-        <v>10.41</v>
+        <v>8.39</v>
       </c>
       <c r="E5" t="n" s="7">
-        <v>0.41</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="6">
@@ -9868,10 +9868,10 @@
         <v>-2.0</v>
       </c>
       <c r="D6" t="n" s="7">
-        <v>8.61</v>
+        <v>11.6</v>
       </c>
       <c r="E6" t="n" s="7">
-        <v>-1.39</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="7">
@@ -9885,10 +9885,10 @@
         <v>-2.0</v>
       </c>
       <c r="D7" t="n" s="7">
-        <v>10.75</v>
+        <v>11.42</v>
       </c>
       <c r="E7" t="n" s="7">
-        <v>0.75</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="8">
@@ -9902,10 +9902,10 @@
         <v>-2.0</v>
       </c>
       <c r="D8" t="n" s="7">
-        <v>9.09</v>
+        <v>11.370000000000001</v>
       </c>
       <c r="E8" t="n" s="7">
-        <v>-0.91</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -9919,10 +9919,10 @@
         <v>-2.0</v>
       </c>
       <c r="D9" t="n" s="7">
-        <v>10.89</v>
+        <v>11.55</v>
       </c>
       <c r="E9" t="n" s="7">
-        <v>0.89</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="10">
@@ -9936,10 +9936,10 @@
         <v>-2.0</v>
       </c>
       <c r="D10" t="n" s="7">
-        <v>8.9</v>
+        <v>9.14</v>
       </c>
       <c r="E10" t="n" s="7">
-        <v>-1.1</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="11">
@@ -9953,10 +9953,10 @@
         <v>-2.0</v>
       </c>
       <c r="D11" t="n" s="7">
-        <v>9.09</v>
+        <v>10.95</v>
       </c>
       <c r="E11" t="n" s="7">
-        <v>-0.91</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12">
@@ -9970,10 +9970,10 @@
         <v>-2.0</v>
       </c>
       <c r="D12" t="n" s="7">
-        <v>11.41</v>
+        <v>9.78</v>
       </c>
       <c r="E12" t="n" s="7">
-        <v>1.41</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="13">
@@ -9987,10 +9987,10 @@
         <v>-2.0</v>
       </c>
       <c r="D13" t="n" s="7">
-        <v>10.74</v>
+        <v>10.73</v>
       </c>
       <c r="E13" t="n" s="7">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="14">
@@ -10004,10 +10004,10 @@
         <v>-2.0</v>
       </c>
       <c r="D14" t="n" s="7">
-        <v>11.42</v>
+        <v>9.62</v>
       </c>
       <c r="E14" t="n" s="7">
-        <v>1.42</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="15">
@@ -10021,10 +10021,10 @@
         <v>-2.0</v>
       </c>
       <c r="D15" t="n" s="7">
-        <v>9.54</v>
+        <v>8.9</v>
       </c>
       <c r="E15" t="n" s="7">
-        <v>-0.46</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="16">
@@ -10038,10 +10038,10 @@
         <v>-2.0</v>
       </c>
       <c r="D16" t="n" s="7">
-        <v>11.58</v>
+        <v>10.72</v>
       </c>
       <c r="E16" t="n" s="7">
-        <v>1.58</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="17">
@@ -10055,10 +10055,10 @@
         <v>-2.0</v>
       </c>
       <c r="D17" t="n" s="7">
-        <v>11.42</v>
+        <v>9.31</v>
       </c>
       <c r="E17" t="n" s="7">
-        <v>1.42</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="18">
@@ -10072,10 +10072,10 @@
         <v>-2.0</v>
       </c>
       <c r="D18" t="n" s="7">
-        <v>10.21</v>
+        <v>9.11</v>
       </c>
       <c r="E18" t="n" s="7">
-        <v>0.21</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="19">
@@ -10089,10 +10089,10 @@
         <v>-2.0</v>
       </c>
       <c r="D19" t="n" s="7">
-        <v>9.73</v>
+        <v>10.46</v>
       </c>
       <c r="E19" t="n" s="7">
-        <v>-0.27</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="20">
@@ -10106,10 +10106,10 @@
         <v>-2.0</v>
       </c>
       <c r="D20" t="n" s="7">
-        <v>9.56</v>
+        <v>10.77</v>
       </c>
       <c r="E20" t="n" s="7">
-        <v>-0.44</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="21">
@@ -10123,10 +10123,10 @@
         <v>-2.0</v>
       </c>
       <c r="D21" t="n" s="7">
-        <v>11.55</v>
+        <v>10.92</v>
       </c>
       <c r="E21" t="n" s="7">
-        <v>1.55</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="22">
@@ -10140,10 +10140,10 @@
         <v>-2.0</v>
       </c>
       <c r="D22" t="n" s="7">
-        <v>10.19</v>
+        <v>10.31</v>
       </c>
       <c r="E22" t="n" s="7">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="23">
@@ -10157,10 +10157,10 @@
         <v>-2.0</v>
       </c>
       <c r="D23" t="n" s="7">
-        <v>11.57</v>
+        <v>10.7</v>
       </c>
       <c r="E23" t="n" s="7">
-        <v>1.57</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24">
@@ -10174,10 +10174,10 @@
         <v>-2.0</v>
       </c>
       <c r="D24" t="n" s="7">
-        <v>8.41</v>
+        <v>9.1</v>
       </c>
       <c r="E24" t="n" s="7">
-        <v>-1.59</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="25">
@@ -10191,10 +10191,10 @@
         <v>-2.0</v>
       </c>
       <c r="D25" t="n" s="7">
-        <v>10.29</v>
+        <v>9.06</v>
       </c>
       <c r="E25" t="n" s="7">
-        <v>0.29</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="26">
@@ -10208,10 +10208,10 @@
         <v>-2.0</v>
       </c>
       <c r="D26" t="n" s="7">
-        <v>10.43</v>
+        <v>10.72</v>
       </c>
       <c r="E26" t="n" s="7">
-        <v>0.43</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="27">
@@ -10225,10 +10225,10 @@
         <v>-2.0</v>
       </c>
       <c r="D27" t="n" s="7">
-        <v>11.4</v>
+        <v>8.58</v>
       </c>
       <c r="E27" t="n" s="7">
-        <v>1.4</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="28">
@@ -10242,10 +10242,10 @@
         <v>-2.0</v>
       </c>
       <c r="D28" t="n" s="7">
-        <v>8.879999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="E28" t="n" s="7">
-        <v>-1.12</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="29">
@@ -10259,10 +10259,10 @@
         <v>-2.0</v>
       </c>
       <c r="D29" t="n" s="7">
-        <v>8.41</v>
+        <v>9.61</v>
       </c>
       <c r="E29" t="n" s="7">
-        <v>-1.59</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="30">
@@ -10276,10 +10276,10 @@
         <v>-2.0</v>
       </c>
       <c r="D30" t="n" s="7">
-        <v>10.21</v>
+        <v>10.26</v>
       </c>
       <c r="E30" t="n" s="7">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="31">
@@ -10293,10 +10293,10 @@
         <v>-2.0</v>
       </c>
       <c r="D31" t="n" s="7">
-        <v>8.42</v>
+        <v>10.92</v>
       </c>
       <c r="E31" t="n" s="7">
-        <v>-1.58</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="32">
@@ -10310,10 +10310,10 @@
         <v>-2.0</v>
       </c>
       <c r="D32" t="n" s="7">
-        <v>9.6</v>
+        <v>10.21</v>
       </c>
       <c r="E32" t="n" s="7">
-        <v>-0.4</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="33">
@@ -10327,10 +10327,10 @@
         <v>-2.0</v>
       </c>
       <c r="D33" t="n" s="7">
-        <v>11.6</v>
+        <v>9.55</v>
       </c>
       <c r="E33" t="n" s="7">
-        <v>1.6</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="34">
@@ -10344,10 +10344,10 @@
         <v>-2.0</v>
       </c>
       <c r="D34" t="n" s="7">
-        <v>10.24</v>
+        <v>11.58</v>
       </c>
       <c r="E34" t="n" s="7">
-        <v>0.24</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="35">
@@ -10361,10 +10361,10 @@
         <v>-2.0</v>
       </c>
       <c r="D35" t="n" s="7">
-        <v>9.23</v>
+        <v>9.1</v>
       </c>
       <c r="E35" t="n" s="7">
-        <v>-0.77</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="36">
@@ -10378,10 +10378,10 @@
         <v>-2.0</v>
       </c>
       <c r="D36" t="n" s="7">
-        <v>9.08</v>
+        <v>9.77</v>
       </c>
       <c r="E36" t="n" s="7">
-        <v>-0.92</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="37">
@@ -10395,10 +10395,10 @@
         <v>-2.0</v>
       </c>
       <c r="D37" t="n" s="7">
-        <v>9.62</v>
+        <v>9.72</v>
       </c>
       <c r="E37" t="n" s="7">
-        <v>-0.38</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="38">
@@ -10412,10 +10412,10 @@
         <v>-2.0</v>
       </c>
       <c r="D38" t="n" s="7">
-        <v>10.95</v>
+        <v>9.06</v>
       </c>
       <c r="E38" t="n" s="7">
-        <v>0.95</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="39">
@@ -10429,10 +10429,10 @@
         <v>-2.0</v>
       </c>
       <c r="D39" t="n" s="7">
-        <v>8.57</v>
+        <v>9.29</v>
       </c>
       <c r="E39" t="n" s="7">
-        <v>-1.43</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="40">
@@ -10446,10 +10446,10 @@
         <v>-2.0</v>
       </c>
       <c r="D40" t="n" s="7">
-        <v>10.7</v>
+        <v>10.72</v>
       </c>
       <c r="E40" t="n" s="7">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="41">
@@ -10463,10 +10463,10 @@
         <v>-2.0</v>
       </c>
       <c r="D41" t="n" s="7">
-        <v>10.7</v>
+        <v>10.66</v>
       </c>
       <c r="E41" t="n" s="7">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="42">
@@ -10497,10 +10497,10 @@
         <v>-2.0</v>
       </c>
       <c r="D43" t="n" s="7">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="E43" t="n" s="7">
-        <v>-1.1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="44">
@@ -10514,10 +10514,10 @@
         <v>-2.0</v>
       </c>
       <c r="D44" t="n" s="7">
-        <v>11.59</v>
+        <v>10.92</v>
       </c>
       <c r="E44" t="n" s="7">
-        <v>1.59</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="45">
@@ -10531,10 +10531,10 @@
         <v>-2.0</v>
       </c>
       <c r="D45" t="n" s="7">
-        <v>10.74</v>
+        <v>10.26</v>
       </c>
       <c r="E45" t="n" s="7">
-        <v>0.74</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="46">
@@ -10548,10 +10548,10 @@
         <v>-2.0</v>
       </c>
       <c r="D46" t="n" s="7">
-        <v>11.42</v>
+        <v>8.58</v>
       </c>
       <c r="E46" t="n" s="7">
-        <v>1.42</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="47">
@@ -10565,10 +10565,10 @@
         <v>-2.0</v>
       </c>
       <c r="D47" t="n" s="7">
-        <v>9.6</v>
+        <v>9.14</v>
       </c>
       <c r="E47" t="n" s="7">
-        <v>-0.4</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="48">
@@ -10582,10 +10582,10 @@
         <v>-2.0</v>
       </c>
       <c r="D48" t="n" s="7">
-        <v>11.41</v>
+        <v>9.74</v>
       </c>
       <c r="E48" t="n" s="7">
-        <v>1.41</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="49">
@@ -10599,10 +10599,10 @@
         <v>-2.0</v>
       </c>
       <c r="D49" t="n" s="7">
-        <v>10.76</v>
+        <v>9.1</v>
       </c>
       <c r="E49" t="n" s="7">
-        <v>0.76</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="50">
@@ -10616,10 +10616,10 @@
         <v>-2.0</v>
       </c>
       <c r="D50" t="n" s="7">
-        <v>9.11</v>
+        <v>11.379999999999999</v>
       </c>
       <c r="E50" t="n" s="7">
-        <v>-0.89</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="51">
@@ -10633,10 +10633,10 @@
         <v>-2.0</v>
       </c>
       <c r="D51" t="n" s="7">
-        <v>9.16</v>
+        <v>10.94</v>
       </c>
       <c r="E51" t="n" s="7">
-        <v>-0.84</v>
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>
@@ -10689,10 +10689,10 @@
         <v>3.5</v>
       </c>
       <c r="C3" t="n" s="11">
-        <v>0.031</v>
+        <v>0.021</v>
       </c>
       <c r="D3" t="n" s="11">
-        <v>0.031</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="4">
@@ -10703,10 +10703,10 @@
         <v>3.5</v>
       </c>
       <c r="C4" t="n" s="11">
-        <v>0.035</v>
+        <v>0.021</v>
       </c>
       <c r="D4" t="n" s="11">
-        <v>0.035</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="5">
@@ -10717,10 +10717,10 @@
         <v>3.5</v>
       </c>
       <c r="C5" t="n" s="11">
-        <v>0.039</v>
+        <v>0.021</v>
       </c>
       <c r="D5" t="n" s="11">
-        <v>0.039</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="6">
@@ -10731,10 +10731,10 @@
         <v>3.5</v>
       </c>
       <c r="C6" t="n" s="11">
-        <v>0.045</v>
+        <v>0.021</v>
       </c>
       <c r="D6" t="n" s="11">
-        <v>0.045</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="7">
@@ -10745,10 +10745,10 @@
         <v>3.5</v>
       </c>
       <c r="C7" t="n" s="11">
-        <v>0.051</v>
+        <v>0.021</v>
       </c>
       <c r="D7" t="n" s="11">
-        <v>0.051</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="8">
@@ -10759,10 +10759,10 @@
         <v>3.5</v>
       </c>
       <c r="C8" t="n" s="11">
-        <v>0.057</v>
+        <v>0.021</v>
       </c>
       <c r="D8" t="n" s="11">
-        <v>0.057</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="9">
@@ -10773,10 +10773,10 @@
         <v>3.5</v>
       </c>
       <c r="C9" t="n" s="11">
-        <v>0.063</v>
+        <v>0.021</v>
       </c>
       <c r="D9" t="n" s="11">
-        <v>0.063</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="10">
@@ -10787,10 +10787,10 @@
         <v>3.5</v>
       </c>
       <c r="C10" t="n" s="11">
-        <v>0.066</v>
+        <v>0.022</v>
       </c>
       <c r="D10" t="n" s="11">
-        <v>0.066</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="11">
@@ -10801,10 +10801,10 @@
         <v>3.5</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>0.075</v>
+        <v>0.029</v>
       </c>
       <c r="D11" t="n" s="11">
-        <v>0.075</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="12">
@@ -10815,10 +10815,10 @@
         <v>3.5</v>
       </c>
       <c r="C12" t="n" s="11">
-        <v>0.09</v>
+        <v>0.037</v>
       </c>
       <c r="D12" t="n" s="11">
-        <v>0.09</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="13">
@@ -10829,10 +10829,10 @@
         <v>3.5</v>
       </c>
       <c r="C13" t="n" s="11">
-        <v>0.091</v>
+        <v>0.05</v>
       </c>
       <c r="D13" t="n" s="11">
-        <v>0.091</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
@@ -10843,10 +10843,10 @@
         <v>3.5</v>
       </c>
       <c r="C14" t="n" s="11">
-        <v>0.092</v>
+        <v>0.053</v>
       </c>
       <c r="D14" t="n" s="11">
-        <v>0.092</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="15">
@@ -10857,10 +10857,10 @@
         <v>3.5</v>
       </c>
       <c r="C15" t="n" s="11">
-        <v>0.098</v>
+        <v>0.055</v>
       </c>
       <c r="D15" t="n" s="11">
-        <v>0.098</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="16">
@@ -10871,10 +10871,10 @@
         <v>3.5</v>
       </c>
       <c r="C16" t="n" s="11">
-        <v>0.1</v>
+        <v>0.058</v>
       </c>
       <c r="D16" t="n" s="11">
-        <v>0.1</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="17">
@@ -10885,10 +10885,10 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n" s="11">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="D17" t="n" s="11">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="18">
@@ -10899,10 +10899,10 @@
         <v>3.5</v>
       </c>
       <c r="C18" t="n" s="11">
-        <v>0.116</v>
+        <v>0.08</v>
       </c>
       <c r="D18" t="n" s="11">
-        <v>0.116</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19">
@@ -10913,10 +10913,10 @@
         <v>3.5</v>
       </c>
       <c r="C19" t="n" s="11">
-        <v>0.122</v>
+        <v>0.081</v>
       </c>
       <c r="D19" t="n" s="11">
-        <v>0.122</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="20">
@@ -10927,10 +10927,10 @@
         <v>3.5</v>
       </c>
       <c r="C20" t="n" s="11">
-        <v>0.128</v>
+        <v>0.082</v>
       </c>
       <c r="D20" t="n" s="11">
-        <v>0.128</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="21">
@@ -10941,10 +10941,10 @@
         <v>3.5</v>
       </c>
       <c r="C21" t="n" s="11">
-        <v>0.138</v>
+        <v>0.082</v>
       </c>
       <c r="D21" t="n" s="11">
-        <v>0.138</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="22">
@@ -10955,10 +10955,10 @@
         <v>3.5</v>
       </c>
       <c r="C22" t="n" s="11">
-        <v>0.139</v>
+        <v>0.082</v>
       </c>
       <c r="D22" t="n" s="11">
-        <v>0.139</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="23">
@@ -10969,10 +10969,10 @@
         <v>3.5</v>
       </c>
       <c r="C23" t="n" s="11">
-        <v>0.139</v>
+        <v>0.082</v>
       </c>
       <c r="D23" t="n" s="11">
-        <v>0.139</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="24">
@@ -10983,10 +10983,10 @@
         <v>3.5</v>
       </c>
       <c r="C24" t="n" s="11">
-        <v>0.142</v>
+        <v>0.083</v>
       </c>
       <c r="D24" t="n" s="11">
-        <v>0.142</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="25">
@@ -10997,10 +10997,10 @@
         <v>3.5</v>
       </c>
       <c r="C25" t="n" s="11">
-        <v>0.153</v>
+        <v>0.084</v>
       </c>
       <c r="D25" t="n" s="11">
-        <v>0.153</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="26">
@@ -11011,10 +11011,10 @@
         <v>3.5</v>
       </c>
       <c r="C26" t="n" s="11">
-        <v>0.163</v>
+        <v>0.085</v>
       </c>
       <c r="D26" t="n" s="11">
-        <v>0.163</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="27">
@@ -11025,10 +11025,10 @@
         <v>3.5</v>
       </c>
       <c r="C27" t="n" s="11">
-        <v>0.235</v>
+        <v>0.114</v>
       </c>
       <c r="D27" t="n" s="11">
-        <v>0.235</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="28">
@@ -11039,10 +11039,10 @@
         <v>3.5</v>
       </c>
       <c r="C28" t="n" s="11">
-        <v>0.258</v>
+        <v>0.168</v>
       </c>
       <c r="D28" t="n" s="11">
-        <v>0.258</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="29">
@@ -11053,10 +11053,10 @@
         <v>3.5</v>
       </c>
       <c r="C29" t="n" s="11">
-        <v>0.38</v>
+        <v>0.171</v>
       </c>
       <c r="D29" t="n" s="11">
-        <v>0.38</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="30">
@@ -11067,10 +11067,10 @@
         <v>3.5</v>
       </c>
       <c r="C30" t="n" s="11">
-        <v>0.487</v>
+        <v>0.186</v>
       </c>
       <c r="D30" t="n" s="11">
-        <v>0.487</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="31">
@@ -11081,10 +11081,10 @@
         <v>3.5</v>
       </c>
       <c r="C31" t="n" s="11">
-        <v>0.594</v>
+        <v>0.222</v>
       </c>
       <c r="D31" t="n" s="11">
-        <v>0.594</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="32">
@@ -11095,10 +11095,10 @@
         <v>3.5</v>
       </c>
       <c r="C32" t="n" s="11">
-        <v>0.7</v>
+        <v>0.257</v>
       </c>
       <c r="D32" t="n" s="11">
-        <v>0.7</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="33">
@@ -11109,10 +11109,10 @@
         <v>3.5</v>
       </c>
       <c r="C33" t="n" s="11">
-        <v>0.864</v>
+        <v>0.262</v>
       </c>
       <c r="D33" t="n" s="11">
-        <v>0.864</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="34">
@@ -11123,10 +11123,10 @@
         <v>3.5</v>
       </c>
       <c r="C34" t="n" s="11">
-        <v>0.877</v>
+        <v>0.263</v>
       </c>
       <c r="D34" t="n" s="11">
-        <v>0.877</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="35">
@@ -11137,10 +11137,10 @@
         <v>3.5</v>
       </c>
       <c r="C35" t="n" s="11">
-        <v>0.915</v>
+        <v>0.263</v>
       </c>
       <c r="D35" t="n" s="11">
-        <v>0.915</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="36">
@@ -11151,10 +11151,10 @@
         <v>3.5</v>
       </c>
       <c r="C36" t="n" s="11">
-        <v>1.133</v>
+        <v>0.265</v>
       </c>
       <c r="D36" t="n" s="11">
-        <v>1.133</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="37">
@@ -11165,10 +11165,10 @@
         <v>3.5</v>
       </c>
       <c r="C37" t="n" s="11">
-        <v>1.155</v>
+        <v>0.268</v>
       </c>
       <c r="D37" t="n" s="11">
-        <v>1.155</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="38">
@@ -11179,10 +11179,10 @@
         <v>3.5</v>
       </c>
       <c r="C38" t="n" s="11">
-        <v>1.236</v>
+        <v>0.268</v>
       </c>
       <c r="D38" t="n" s="11">
-        <v>1.236</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="39">
@@ -11193,10 +11193,10 @@
         <v>3.5</v>
       </c>
       <c r="C39" t="n" s="11">
-        <v>1.302</v>
+        <v>0.298</v>
       </c>
       <c r="D39" t="n" s="11">
-        <v>1.302</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="40">
@@ -11207,10 +11207,10 @@
         <v>3.5</v>
       </c>
       <c r="C40" t="n" s="11">
-        <v>1.313</v>
+        <v>0.319</v>
       </c>
       <c r="D40" t="n" s="11">
-        <v>1.313</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="41">
@@ -11221,10 +11221,10 @@
         <v>3.5</v>
       </c>
       <c r="C41" t="n" s="11">
-        <v>1.324</v>
+        <v>0.357</v>
       </c>
       <c r="D41" t="n" s="11">
-        <v>1.324</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="42">
@@ -11235,10 +11235,10 @@
         <v>3.5</v>
       </c>
       <c r="C42" t="n" s="11">
-        <v>1.357</v>
+        <v>0.387</v>
       </c>
       <c r="D42" t="n" s="11">
-        <v>1.357</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="43">
@@ -11249,10 +11249,10 @@
         <v>3.5</v>
       </c>
       <c r="C43" t="n" s="11">
-        <v>1.371</v>
+        <v>0.417</v>
       </c>
       <c r="D43" t="n" s="11">
-        <v>1.371</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="44">
@@ -11263,10 +11263,10 @@
         <v>3.5</v>
       </c>
       <c r="C44" t="n" s="11">
-        <v>1.412</v>
+        <v>0.446</v>
       </c>
       <c r="D44" t="n" s="11">
-        <v>1.412</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="45">
@@ -11277,10 +11277,10 @@
         <v>3.5</v>
       </c>
       <c r="C45" t="n" s="11">
-        <v>1.433</v>
+        <v>0.446</v>
       </c>
       <c r="D45" t="n" s="11">
-        <v>1.433</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="46">
@@ -11291,10 +11291,10 @@
         <v>3.5</v>
       </c>
       <c r="C46" t="n" s="11">
-        <v>1.453</v>
+        <v>0.448</v>
       </c>
       <c r="D46" t="n" s="11">
-        <v>1.453</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="47">
@@ -11305,10 +11305,10 @@
         <v>3.5</v>
       </c>
       <c r="C47" t="n" s="11">
-        <v>1.475</v>
+        <v>0.45</v>
       </c>
       <c r="D47" t="n" s="11">
-        <v>1.475</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="48">
@@ -11319,10 +11319,10 @@
         <v>3.5</v>
       </c>
       <c r="C48" t="n" s="11">
-        <v>1.508</v>
+        <v>0.451</v>
       </c>
       <c r="D48" t="n" s="11">
-        <v>1.508</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="49">
@@ -11333,10 +11333,10 @@
         <v>3.5</v>
       </c>
       <c r="C49" t="n" s="11">
-        <v>1.54</v>
+        <v>0.452</v>
       </c>
       <c r="D49" t="n" s="11">
-        <v>1.54</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="50">
@@ -11347,10 +11347,10 @@
         <v>3.5</v>
       </c>
       <c r="C50" t="n" s="11">
-        <v>1.557</v>
+        <v>0.459</v>
       </c>
       <c r="D50" t="n" s="11">
-        <v>1.557</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="51">
@@ -11361,10 +11361,10 @@
         <v>3.5</v>
       </c>
       <c r="C51" t="n" s="11">
-        <v>1.56</v>
+        <v>0.466</v>
       </c>
       <c r="D51" t="n" s="11">
-        <v>1.56</v>
+        <v>0.466</v>
       </c>
     </row>
   </sheetData>
@@ -11420,10 +11420,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n" s="15">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C3" t="n" s="15">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="D3" t="n" s="15">
         <v>161.0</v>
@@ -11437,10 +11437,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="n" s="15">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C4" t="n" s="15">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="D4" t="n" s="15">
         <v>161.0</v>
@@ -11454,10 +11454,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="n" s="15">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C5" t="n" s="15">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="D5" t="n" s="15">
         <v>161.0</v>
@@ -11471,10 +11471,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="n" s="15">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="C6" t="n" s="15">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="D6" t="n" s="15">
         <v>161.0</v>
@@ -11488,10 +11488,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" t="n" s="15">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="C7" t="n" s="15">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="D7" t="n" s="15">
         <v>161.0</v>
@@ -11505,10 +11505,10 @@
         <v>6.0</v>
       </c>
       <c r="B8" t="n" s="15">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="C8" t="n" s="15">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="D8" t="n" s="15">
         <v>161.0</v>
@@ -11522,10 +11522,10 @@
         <v>7.0</v>
       </c>
       <c r="B9" t="n" s="15">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="C9" t="n" s="15">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="D9" t="n" s="15">
         <v>161.0</v>
@@ -11539,10 +11539,10 @@
         <v>8.0</v>
       </c>
       <c r="B10" t="n" s="15">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="C10" t="n" s="15">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="D10" t="n" s="15">
         <v>161.0</v>
@@ -11556,10 +11556,10 @@
         <v>9.0</v>
       </c>
       <c r="B11" t="n" s="15">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="C11" t="n" s="15">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D11" t="n" s="15">
         <v>161.0</v>
@@ -11573,10 +11573,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" t="n" s="15">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C12" t="n" s="15">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D12" t="n" s="15">
         <v>161.0</v>
@@ -11590,10 +11590,10 @@
         <v>11.0</v>
       </c>
       <c r="B13" t="n" s="15">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="C13" t="n" s="15">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="D13" t="n" s="15">
         <v>161.0</v>
@@ -11607,10 +11607,10 @@
         <v>12.0</v>
       </c>
       <c r="B14" t="n" s="15">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="C14" t="n" s="15">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="D14" t="n" s="15">
         <v>161.0</v>
@@ -11624,10 +11624,10 @@
         <v>13.0</v>
       </c>
       <c r="B15" t="n" s="15">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
       <c r="D15" t="n" s="15">
         <v>161.0</v>
@@ -11641,10 +11641,10 @@
         <v>14.0</v>
       </c>
       <c r="B16" t="n" s="15">
-        <v>43.0</v>
+        <v>49.0</v>
       </c>
       <c r="C16" t="n" s="15">
-        <v>43.0</v>
+        <v>49.0</v>
       </c>
       <c r="D16" t="n" s="15">
         <v>161.0</v>
@@ -11658,10 +11658,10 @@
         <v>15.0</v>
       </c>
       <c r="B17" t="n" s="15">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="C17" t="n" s="15">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="D17" t="n" s="15">
         <v>161.0</v>
@@ -11675,10 +11675,10 @@
         <v>16.0</v>
       </c>
       <c r="B18" t="n" s="15">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="C18" t="n" s="15">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="D18" t="n" s="15">
         <v>161.0</v>
@@ -11692,10 +11692,10 @@
         <v>17.0</v>
       </c>
       <c r="B19" t="n" s="15">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="C19" t="n" s="15">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="D19" t="n" s="15">
         <v>161.0</v>
@@ -11709,10 +11709,10 @@
         <v>18.0</v>
       </c>
       <c r="B20" t="n" s="15">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="C20" t="n" s="15">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="D20" t="n" s="15">
         <v>161.0</v>
@@ -11726,10 +11726,10 @@
         <v>19.0</v>
       </c>
       <c r="B21" t="n" s="15">
-        <v>48.0</v>
+        <v>55.0</v>
       </c>
       <c r="C21" t="n" s="15">
-        <v>48.0</v>
+        <v>55.0</v>
       </c>
       <c r="D21" t="n" s="15">
         <v>161.0</v>
@@ -11743,10 +11743,10 @@
         <v>20.0</v>
       </c>
       <c r="B22" t="n" s="15">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="C22" t="n" s="15">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="D22" t="n" s="15">
         <v>161.0</v>
@@ -11760,10 +11760,10 @@
         <v>21.0</v>
       </c>
       <c r="B23" t="n" s="15">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
       <c r="C23" t="n" s="15">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
       <c r="D23" t="n" s="15">
         <v>161.0</v>
@@ -11777,10 +11777,10 @@
         <v>22.0</v>
       </c>
       <c r="B24" t="n" s="15">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
       <c r="C24" t="n" s="15">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
       <c r="D24" t="n" s="15">
         <v>161.0</v>
@@ -11794,10 +11794,10 @@
         <v>23.0</v>
       </c>
       <c r="B25" t="n" s="15">
-        <v>60.0</v>
+        <v>71.0</v>
       </c>
       <c r="C25" t="n" s="15">
-        <v>60.0</v>
+        <v>71.0</v>
       </c>
       <c r="D25" t="n" s="15">
         <v>161.0</v>
@@ -11811,10 +11811,10 @@
         <v>24.0</v>
       </c>
       <c r="B26" t="n" s="15">
-        <v>63.0</v>
+        <v>75.0</v>
       </c>
       <c r="C26" t="n" s="15">
-        <v>63.0</v>
+        <v>75.0</v>
       </c>
       <c r="D26" t="n" s="15">
         <v>161.0</v>
@@ -11828,10 +11828,10 @@
         <v>25.0</v>
       </c>
       <c r="B27" t="n" s="15">
-        <v>69.0</v>
+        <v>76.0</v>
       </c>
       <c r="C27" t="n" s="15">
-        <v>69.0</v>
+        <v>76.0</v>
       </c>
       <c r="D27" t="n" s="15">
         <v>161.0</v>
@@ -11845,10 +11845,10 @@
         <v>26.0</v>
       </c>
       <c r="B28" t="n" s="15">
-        <v>79.0</v>
+        <v>76.0</v>
       </c>
       <c r="C28" t="n" s="15">
-        <v>79.0</v>
+        <v>76.0</v>
       </c>
       <c r="D28" t="n" s="15">
         <v>161.0</v>
@@ -11862,10 +11862,10 @@
         <v>27.0</v>
       </c>
       <c r="B29" t="n" s="15">
-        <v>81.0</v>
+        <v>76.0</v>
       </c>
       <c r="C29" t="n" s="15">
-        <v>81.0</v>
+        <v>76.0</v>
       </c>
       <c r="D29" t="n" s="15">
         <v>161.0</v>
@@ -11879,10 +11879,10 @@
         <v>28.0</v>
       </c>
       <c r="B30" t="n" s="15">
-        <v>84.0</v>
+        <v>80.0</v>
       </c>
       <c r="C30" t="n" s="15">
-        <v>84.0</v>
+        <v>80.0</v>
       </c>
       <c r="D30" t="n" s="15">
         <v>161.0</v>
@@ -11896,10 +11896,10 @@
         <v>29.0</v>
       </c>
       <c r="B31" t="n" s="15">
-        <v>84.0</v>
+        <v>82.0</v>
       </c>
       <c r="C31" t="n" s="15">
-        <v>84.0</v>
+        <v>82.0</v>
       </c>
       <c r="D31" t="n" s="15">
         <v>161.0</v>
@@ -11913,10 +11913,10 @@
         <v>30.0</v>
       </c>
       <c r="B32" t="n" s="15">
-        <v>95.0</v>
+        <v>89.0</v>
       </c>
       <c r="C32" t="n" s="15">
-        <v>95.0</v>
+        <v>89.0</v>
       </c>
       <c r="D32" t="n" s="15">
         <v>161.0</v>
@@ -11930,10 +11930,10 @@
         <v>31.0</v>
       </c>
       <c r="B33" t="n" s="15">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="C33" t="n" s="15">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="D33" t="n" s="15">
         <v>161.0</v>
@@ -11947,10 +11947,10 @@
         <v>32.0</v>
       </c>
       <c r="B34" t="n" s="15">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="C34" t="n" s="15">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="D34" t="n" s="15">
         <v>161.0</v>
@@ -11964,10 +11964,10 @@
         <v>33.0</v>
       </c>
       <c r="B35" t="n" s="15">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="C35" t="n" s="15">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="D35" t="n" s="15">
         <v>161.0</v>
@@ -11981,10 +11981,10 @@
         <v>34.0</v>
       </c>
       <c r="B36" t="n" s="15">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
       <c r="C36" t="n" s="15">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
       <c r="D36" t="n" s="15">
         <v>161.0</v>
@@ -11998,10 +11998,10 @@
         <v>35.0</v>
       </c>
       <c r="B37" t="n" s="15">
-        <v>104.0</v>
+        <v>101.0</v>
       </c>
       <c r="C37" t="n" s="15">
-        <v>104.0</v>
+        <v>101.0</v>
       </c>
       <c r="D37" t="n" s="15">
         <v>161.0</v>
@@ -12015,10 +12015,10 @@
         <v>36.0</v>
       </c>
       <c r="B38" t="n" s="15">
-        <v>104.0</v>
+        <v>102.0</v>
       </c>
       <c r="C38" t="n" s="15">
-        <v>104.0</v>
+        <v>102.0</v>
       </c>
       <c r="D38" t="n" s="15">
         <v>161.0</v>
@@ -12032,10 +12032,10 @@
         <v>37.0</v>
       </c>
       <c r="B39" t="n" s="15">
-        <v>104.0</v>
+        <v>114.0</v>
       </c>
       <c r="C39" t="n" s="15">
-        <v>104.0</v>
+        <v>114.0</v>
       </c>
       <c r="D39" t="n" s="15">
         <v>161.0</v>
@@ -12049,10 +12049,10 @@
         <v>38.0</v>
       </c>
       <c r="B40" t="n" s="15">
-        <v>104.0</v>
+        <v>114.0</v>
       </c>
       <c r="C40" t="n" s="15">
-        <v>104.0</v>
+        <v>114.0</v>
       </c>
       <c r="D40" t="n" s="15">
         <v>161.0</v>
@@ -12066,10 +12066,10 @@
         <v>39.0</v>
       </c>
       <c r="B41" t="n" s="15">
-        <v>105.0</v>
+        <v>114.0</v>
       </c>
       <c r="C41" t="n" s="15">
-        <v>105.0</v>
+        <v>114.0</v>
       </c>
       <c r="D41" t="n" s="15">
         <v>161.0</v>
@@ -12083,10 +12083,10 @@
         <v>40.0</v>
       </c>
       <c r="B42" t="n" s="15">
-        <v>105.0</v>
+        <v>115.0</v>
       </c>
       <c r="C42" t="n" s="15">
-        <v>105.0</v>
+        <v>115.0</v>
       </c>
       <c r="D42" t="n" s="15">
         <v>161.0</v>
@@ -12100,10 +12100,10 @@
         <v>41.0</v>
       </c>
       <c r="B43" t="n" s="15">
-        <v>105.0</v>
+        <v>120.0</v>
       </c>
       <c r="C43" t="n" s="15">
-        <v>105.0</v>
+        <v>120.0</v>
       </c>
       <c r="D43" t="n" s="15">
         <v>161.0</v>
@@ -12117,10 +12117,10 @@
         <v>42.0</v>
       </c>
       <c r="B44" t="n" s="15">
-        <v>105.0</v>
+        <v>125.0</v>
       </c>
       <c r="C44" t="n" s="15">
-        <v>105.0</v>
+        <v>125.0</v>
       </c>
       <c r="D44" t="n" s="15">
         <v>161.0</v>
@@ -12134,10 +12134,10 @@
         <v>43.0</v>
       </c>
       <c r="B45" t="n" s="15">
-        <v>105.0</v>
+        <v>126.0</v>
       </c>
       <c r="C45" t="n" s="15">
-        <v>105.0</v>
+        <v>126.0</v>
       </c>
       <c r="D45" t="n" s="15">
         <v>161.0</v>
@@ -12151,10 +12151,10 @@
         <v>44.0</v>
       </c>
       <c r="B46" t="n" s="15">
-        <v>105.0</v>
+        <v>129.0</v>
       </c>
       <c r="C46" t="n" s="15">
-        <v>105.0</v>
+        <v>129.0</v>
       </c>
       <c r="D46" t="n" s="15">
         <v>161.0</v>
@@ -12168,10 +12168,10 @@
         <v>45.0</v>
       </c>
       <c r="B47" t="n" s="15">
-        <v>106.0</v>
+        <v>131.0</v>
       </c>
       <c r="C47" t="n" s="15">
-        <v>106.0</v>
+        <v>131.0</v>
       </c>
       <c r="D47" t="n" s="15">
         <v>161.0</v>
@@ -12185,10 +12185,10 @@
         <v>46.0</v>
       </c>
       <c r="B48" t="n" s="15">
-        <v>106.0</v>
+        <v>131.0</v>
       </c>
       <c r="C48" t="n" s="15">
-        <v>106.0</v>
+        <v>131.0</v>
       </c>
       <c r="D48" t="n" s="15">
         <v>161.0</v>
@@ -12202,10 +12202,10 @@
         <v>47.0</v>
       </c>
       <c r="B49" t="n" s="15">
-        <v>106.0</v>
+        <v>132.0</v>
       </c>
       <c r="C49" t="n" s="15">
-        <v>106.0</v>
+        <v>132.0</v>
       </c>
       <c r="D49" t="n" s="15">
         <v>161.0</v>
@@ -12219,10 +12219,10 @@
         <v>48.0</v>
       </c>
       <c r="B50" t="n" s="15">
-        <v>106.0</v>
+        <v>132.0</v>
       </c>
       <c r="C50" t="n" s="15">
-        <v>106.0</v>
+        <v>132.0</v>
       </c>
       <c r="D50" t="n" s="15">
         <v>161.0</v>
@@ -12236,10 +12236,10 @@
         <v>49.0</v>
       </c>
       <c r="B51" t="n" s="15">
-        <v>106.0</v>
+        <v>132.0</v>
       </c>
       <c r="C51" t="n" s="15">
-        <v>106.0</v>
+        <v>132.0</v>
       </c>
       <c r="D51" t="n" s="15">
         <v>161.0</v>
@@ -12267,10 +12267,10 @@
         <v>0.0</v>
       </c>
       <c r="B56" t="n" s="19">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C56" t="n" s="19">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="D56" t="n" s="19">
         <v>300.0</v>
@@ -12295,10 +12295,10 @@
         <v>2.0</v>
       </c>
       <c r="B58" t="n" s="19">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="C58" t="n" s="19">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D58" t="n" s="19">
         <v>300.0</v>
@@ -12309,10 +12309,10 @@
         <v>3.0</v>
       </c>
       <c r="B59" t="n" s="19">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="C59" t="n" s="19">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="D59" t="n" s="19">
         <v>300.0</v>
@@ -12323,10 +12323,10 @@
         <v>4.0</v>
       </c>
       <c r="B60" t="n" s="19">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="C60" t="n" s="19">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="D60" t="n" s="19">
         <v>300.0</v>
@@ -12337,10 +12337,10 @@
         <v>5.0</v>
       </c>
       <c r="B61" t="n" s="19">
-        <v>38.0</v>
+        <v>21.0</v>
       </c>
       <c r="C61" t="n" s="19">
-        <v>38.0</v>
+        <v>21.0</v>
       </c>
       <c r="D61" t="n" s="19">
         <v>300.0</v>
@@ -12351,10 +12351,10 @@
         <v>6.0</v>
       </c>
       <c r="B62" t="n" s="19">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="C62" t="n" s="19">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="D62" t="n" s="19">
         <v>300.0</v>
@@ -12365,10 +12365,10 @@
         <v>7.0</v>
       </c>
       <c r="B63" t="n" s="19">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="C63" t="n" s="19">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="D63" t="n" s="19">
         <v>300.0</v>
@@ -12379,10 +12379,10 @@
         <v>8.0</v>
       </c>
       <c r="B64" t="n" s="19">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="C64" t="n" s="19">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="D64" t="n" s="19">
         <v>300.0</v>
@@ -12393,10 +12393,10 @@
         <v>9.0</v>
       </c>
       <c r="B65" t="n" s="19">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="C65" t="n" s="19">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="D65" t="n" s="19">
         <v>300.0</v>
@@ -12407,10 +12407,10 @@
         <v>10.0</v>
       </c>
       <c r="B66" t="n" s="19">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="C66" t="n" s="19">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="D66" t="n" s="19">
         <v>300.0</v>
@@ -12421,10 +12421,10 @@
         <v>11.0</v>
       </c>
       <c r="B67" t="n" s="19">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="C67" t="n" s="19">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="D67" t="n" s="19">
         <v>300.0</v>
@@ -12435,10 +12435,10 @@
         <v>12.0</v>
       </c>
       <c r="B68" t="n" s="19">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="C68" t="n" s="19">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="D68" t="n" s="19">
         <v>300.0</v>
@@ -12449,10 +12449,10 @@
         <v>13.0</v>
       </c>
       <c r="B69" t="n" s="19">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="C69" t="n" s="19">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="D69" t="n" s="19">
         <v>300.0</v>
@@ -12463,10 +12463,10 @@
         <v>14.0</v>
       </c>
       <c r="B70" t="n" s="19">
-        <v>44.0</v>
+        <v>21.0</v>
       </c>
       <c r="C70" t="n" s="19">
-        <v>44.0</v>
+        <v>21.0</v>
       </c>
       <c r="D70" t="n" s="19">
         <v>300.0</v>
@@ -12477,10 +12477,10 @@
         <v>15.0</v>
       </c>
       <c r="B71" t="n" s="19">
-        <v>47.0</v>
+        <v>21.0</v>
       </c>
       <c r="C71" t="n" s="19">
-        <v>47.0</v>
+        <v>21.0</v>
       </c>
       <c r="D71" t="n" s="19">
         <v>300.0</v>
@@ -12491,10 +12491,10 @@
         <v>16.0</v>
       </c>
       <c r="B72" t="n" s="19">
-        <v>48.0</v>
+        <v>21.0</v>
       </c>
       <c r="C72" t="n" s="19">
-        <v>48.0</v>
+        <v>21.0</v>
       </c>
       <c r="D72" t="n" s="19">
         <v>300.0</v>
@@ -12505,10 +12505,10 @@
         <v>17.0</v>
       </c>
       <c r="B73" t="n" s="19">
-        <v>50.0</v>
+        <v>21.0</v>
       </c>
       <c r="C73" t="n" s="19">
-        <v>50.0</v>
+        <v>21.0</v>
       </c>
       <c r="D73" t="n" s="19">
         <v>300.0</v>
@@ -12519,10 +12519,10 @@
         <v>18.0</v>
       </c>
       <c r="B74" t="n" s="19">
-        <v>51.0</v>
+        <v>21.0</v>
       </c>
       <c r="C74" t="n" s="19">
-        <v>51.0</v>
+        <v>21.0</v>
       </c>
       <c r="D74" t="n" s="19">
         <v>300.0</v>
@@ -12533,10 +12533,10 @@
         <v>19.0</v>
       </c>
       <c r="B75" t="n" s="19">
-        <v>53.0</v>
+        <v>21.0</v>
       </c>
       <c r="C75" t="n" s="19">
-        <v>53.0</v>
+        <v>21.0</v>
       </c>
       <c r="D75" t="n" s="19">
         <v>300.0</v>
@@ -12547,10 +12547,10 @@
         <v>20.0</v>
       </c>
       <c r="B76" t="n" s="19">
-        <v>54.0</v>
+        <v>21.0</v>
       </c>
       <c r="C76" t="n" s="19">
-        <v>54.0</v>
+        <v>21.0</v>
       </c>
       <c r="D76" t="n" s="19">
         <v>300.0</v>
@@ -12561,10 +12561,10 @@
         <v>21.0</v>
       </c>
       <c r="B77" t="n" s="19">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
       <c r="C77" t="n" s="19">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
       <c r="D77" t="n" s="19">
         <v>300.0</v>
@@ -12575,10 +12575,10 @@
         <v>22.0</v>
       </c>
       <c r="B78" t="n" s="19">
-        <v>58.0</v>
+        <v>21.0</v>
       </c>
       <c r="C78" t="n" s="19">
-        <v>58.0</v>
+        <v>21.0</v>
       </c>
       <c r="D78" t="n" s="19">
         <v>300.0</v>
@@ -12589,10 +12589,10 @@
         <v>23.0</v>
       </c>
       <c r="B79" t="n" s="19">
-        <v>60.0</v>
+        <v>21.0</v>
       </c>
       <c r="C79" t="n" s="19">
-        <v>60.0</v>
+        <v>21.0</v>
       </c>
       <c r="D79" t="n" s="19">
         <v>300.0</v>
@@ -12603,10 +12603,10 @@
         <v>24.0</v>
       </c>
       <c r="B80" t="n" s="19">
-        <v>61.0</v>
+        <v>21.0</v>
       </c>
       <c r="C80" t="n" s="19">
-        <v>61.0</v>
+        <v>21.0</v>
       </c>
       <c r="D80" t="n" s="19">
         <v>300.0</v>
@@ -12617,10 +12617,10 @@
         <v>25.0</v>
       </c>
       <c r="B81" t="n" s="19">
-        <v>63.0</v>
+        <v>21.0</v>
       </c>
       <c r="C81" t="n" s="19">
-        <v>63.0</v>
+        <v>21.0</v>
       </c>
       <c r="D81" t="n" s="19">
         <v>300.0</v>
@@ -12631,10 +12631,10 @@
         <v>26.0</v>
       </c>
       <c r="B82" t="n" s="19">
-        <v>66.0</v>
+        <v>21.0</v>
       </c>
       <c r="C82" t="n" s="19">
-        <v>66.0</v>
+        <v>21.0</v>
       </c>
       <c r="D82" t="n" s="19">
         <v>300.0</v>
@@ -12645,10 +12645,10 @@
         <v>27.0</v>
       </c>
       <c r="B83" t="n" s="19">
-        <v>68.0</v>
+        <v>21.0</v>
       </c>
       <c r="C83" t="n" s="19">
-        <v>68.0</v>
+        <v>21.0</v>
       </c>
       <c r="D83" t="n" s="19">
         <v>300.0</v>
@@ -12659,10 +12659,10 @@
         <v>28.0</v>
       </c>
       <c r="B84" t="n" s="19">
-        <v>71.0</v>
+        <v>21.0</v>
       </c>
       <c r="C84" t="n" s="19">
-        <v>71.0</v>
+        <v>21.0</v>
       </c>
       <c r="D84" t="n" s="19">
         <v>300.0</v>
@@ -12673,10 +12673,10 @@
         <v>29.0</v>
       </c>
       <c r="B85" t="n" s="19">
-        <v>74.0</v>
+        <v>21.0</v>
       </c>
       <c r="C85" t="n" s="19">
-        <v>74.0</v>
+        <v>21.0</v>
       </c>
       <c r="D85" t="n" s="19">
         <v>300.0</v>
@@ -12687,10 +12687,10 @@
         <v>30.0</v>
       </c>
       <c r="B86" t="n" s="19">
-        <v>77.0</v>
+        <v>21.0</v>
       </c>
       <c r="C86" t="n" s="19">
-        <v>77.0</v>
+        <v>21.0</v>
       </c>
       <c r="D86" t="n" s="19">
         <v>300.0</v>
@@ -12701,10 +12701,10 @@
         <v>31.0</v>
       </c>
       <c r="B87" t="n" s="19">
-        <v>85.0</v>
+        <v>21.0</v>
       </c>
       <c r="C87" t="n" s="19">
-        <v>85.0</v>
+        <v>21.0</v>
       </c>
       <c r="D87" t="n" s="19">
         <v>300.0</v>
@@ -12715,10 +12715,10 @@
         <v>32.0</v>
       </c>
       <c r="B88" t="n" s="19">
-        <v>88.0</v>
+        <v>21.0</v>
       </c>
       <c r="C88" t="n" s="19">
-        <v>88.0</v>
+        <v>21.0</v>
       </c>
       <c r="D88" t="n" s="19">
         <v>300.0</v>
@@ -12729,10 +12729,10 @@
         <v>33.0</v>
       </c>
       <c r="B89" t="n" s="19">
-        <v>90.0</v>
+        <v>21.0</v>
       </c>
       <c r="C89" t="n" s="19">
-        <v>90.0</v>
+        <v>21.0</v>
       </c>
       <c r="D89" t="n" s="19">
         <v>300.0</v>
@@ -12743,10 +12743,10 @@
         <v>34.0</v>
       </c>
       <c r="B90" t="n" s="19">
-        <v>91.0</v>
+        <v>21.0</v>
       </c>
       <c r="C90" t="n" s="19">
-        <v>91.0</v>
+        <v>21.0</v>
       </c>
       <c r="D90" t="n" s="19">
         <v>300.0</v>
@@ -12757,10 +12757,10 @@
         <v>35.0</v>
       </c>
       <c r="B91" t="n" s="19">
-        <v>92.0</v>
+        <v>21.0</v>
       </c>
       <c r="C91" t="n" s="19">
-        <v>92.0</v>
+        <v>21.0</v>
       </c>
       <c r="D91" t="n" s="19">
         <v>300.0</v>
@@ -12771,10 +12771,10 @@
         <v>36.0</v>
       </c>
       <c r="B92" t="n" s="19">
-        <v>93.0</v>
+        <v>21.0</v>
       </c>
       <c r="C92" t="n" s="19">
-        <v>93.0</v>
+        <v>21.0</v>
       </c>
       <c r="D92" t="n" s="19">
         <v>300.0</v>
@@ -12785,10 +12785,10 @@
         <v>37.0</v>
       </c>
       <c r="B93" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="C93" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="D93" t="n" s="19">
         <v>300.0</v>
@@ -12799,10 +12799,10 @@
         <v>38.0</v>
       </c>
       <c r="B94" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="C94" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="D94" t="n" s="19">
         <v>300.0</v>
@@ -12813,10 +12813,10 @@
         <v>39.0</v>
       </c>
       <c r="B95" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="C95" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="D95" t="n" s="19">
         <v>300.0</v>
@@ -12827,10 +12827,10 @@
         <v>40.0</v>
       </c>
       <c r="B96" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="C96" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="D96" t="n" s="19">
         <v>300.0</v>
@@ -12841,10 +12841,10 @@
         <v>41.0</v>
       </c>
       <c r="B97" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="C97" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="D97" t="n" s="19">
         <v>300.0</v>
@@ -12855,10 +12855,10 @@
         <v>42.0</v>
       </c>
       <c r="B98" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="C98" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="D98" t="n" s="19">
         <v>300.0</v>
@@ -12869,10 +12869,10 @@
         <v>43.0</v>
       </c>
       <c r="B99" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="C99" t="n" s="19">
-        <v>93.0</v>
+        <v>22.0</v>
       </c>
       <c r="D99" t="n" s="19">
         <v>300.0</v>
@@ -12883,10 +12883,10 @@
         <v>44.0</v>
       </c>
       <c r="B100" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="C100" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="D100" t="n" s="19">
         <v>300.0</v>
@@ -12897,10 +12897,10 @@
         <v>45.0</v>
       </c>
       <c r="B101" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="C101" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="D101" t="n" s="19">
         <v>300.0</v>
@@ -12911,10 +12911,10 @@
         <v>46.0</v>
       </c>
       <c r="B102" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="C102" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="D102" t="n" s="19">
         <v>300.0</v>
@@ -12925,10 +12925,10 @@
         <v>47.0</v>
       </c>
       <c r="B103" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="C103" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="D103" t="n" s="19">
         <v>300.0</v>
@@ -12939,10 +12939,10 @@
         <v>48.0</v>
       </c>
       <c r="B104" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="C104" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="D104" t="n" s="19">
         <v>300.0</v>
@@ -12953,10 +12953,10 @@
         <v>49.0</v>
       </c>
       <c r="B105" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="C105" t="n" s="19">
-        <v>94.0</v>
+        <v>22.0</v>
       </c>
       <c r="D105" t="n" s="19">
         <v>300.0</v>
@@ -12981,10 +12981,10 @@
         <v>0.0</v>
       </c>
       <c r="B110" t="n" s="23">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C110" t="n" s="23">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="D110" t="n" s="23">
         <v>300.0</v>
@@ -12995,10 +12995,10 @@
         <v>1.0</v>
       </c>
       <c r="B111" t="n" s="23">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="C111" t="n" s="23">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D111" t="n" s="23">
         <v>300.0</v>
@@ -13009,10 +13009,10 @@
         <v>2.0</v>
       </c>
       <c r="B112" t="n" s="23">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="C112" t="n" s="23">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="D112" t="n" s="23">
         <v>300.0</v>
@@ -13023,10 +13023,10 @@
         <v>3.0</v>
       </c>
       <c r="B113" t="n" s="23">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="C113" t="n" s="23">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="D113" t="n" s="23">
         <v>300.0</v>
@@ -13037,10 +13037,10 @@
         <v>4.0</v>
       </c>
       <c r="B114" t="n" s="23">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="C114" t="n" s="23">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="D114" t="n" s="23">
         <v>300.0</v>
@@ -13051,10 +13051,10 @@
         <v>5.0</v>
       </c>
       <c r="B115" t="n" s="23">
-        <v>45.0</v>
+        <v>21.0</v>
       </c>
       <c r="C115" t="n" s="23">
-        <v>45.0</v>
+        <v>21.0</v>
       </c>
       <c r="D115" t="n" s="23">
         <v>300.0</v>
@@ -13065,10 +13065,10 @@
         <v>6.0</v>
       </c>
       <c r="B116" t="n" s="23">
-        <v>49.0</v>
+        <v>21.0</v>
       </c>
       <c r="C116" t="n" s="23">
-        <v>49.0</v>
+        <v>21.0</v>
       </c>
       <c r="D116" t="n" s="23">
         <v>300.0</v>
@@ -13079,10 +13079,10 @@
         <v>7.0</v>
       </c>
       <c r="B117" t="n" s="23">
-        <v>62.0</v>
+        <v>21.0</v>
       </c>
       <c r="C117" t="n" s="23">
-        <v>62.0</v>
+        <v>21.0</v>
       </c>
       <c r="D117" t="n" s="23">
         <v>300.0</v>
@@ -13093,10 +13093,10 @@
         <v>8.0</v>
       </c>
       <c r="B118" t="n" s="23">
-        <v>63.0</v>
+        <v>21.0</v>
       </c>
       <c r="C118" t="n" s="23">
-        <v>63.0</v>
+        <v>21.0</v>
       </c>
       <c r="D118" t="n" s="23">
         <v>300.0</v>
@@ -13107,10 +13107,10 @@
         <v>9.0</v>
       </c>
       <c r="B119" t="n" s="23">
-        <v>64.0</v>
+        <v>21.0</v>
       </c>
       <c r="C119" t="n" s="23">
-        <v>64.0</v>
+        <v>21.0</v>
       </c>
       <c r="D119" t="n" s="23">
         <v>300.0</v>
@@ -13121,10 +13121,10 @@
         <v>10.0</v>
       </c>
       <c r="B120" t="n" s="23">
-        <v>75.0</v>
+        <v>21.0</v>
       </c>
       <c r="C120" t="n" s="23">
-        <v>75.0</v>
+        <v>21.0</v>
       </c>
       <c r="D120" t="n" s="23">
         <v>300.0</v>
@@ -13135,10 +13135,10 @@
         <v>11.0</v>
       </c>
       <c r="B121" t="n" s="23">
-        <v>77.0</v>
+        <v>21.0</v>
       </c>
       <c r="C121" t="n" s="23">
-        <v>77.0</v>
+        <v>21.0</v>
       </c>
       <c r="D121" t="n" s="23">
         <v>300.0</v>
@@ -13149,10 +13149,10 @@
         <v>12.0</v>
       </c>
       <c r="B122" t="n" s="23">
-        <v>78.0</v>
+        <v>21.0</v>
       </c>
       <c r="C122" t="n" s="23">
-        <v>78.0</v>
+        <v>21.0</v>
       </c>
       <c r="D122" t="n" s="23">
         <v>300.0</v>
@@ -13163,10 +13163,10 @@
         <v>13.0</v>
       </c>
       <c r="B123" t="n" s="23">
-        <v>78.0</v>
+        <v>22.0</v>
       </c>
       <c r="C123" t="n" s="23">
-        <v>78.0</v>
+        <v>22.0</v>
       </c>
       <c r="D123" t="n" s="23">
         <v>300.0</v>
@@ -13177,10 +13177,10 @@
         <v>14.0</v>
       </c>
       <c r="B124" t="n" s="23">
-        <v>78.0</v>
+        <v>22.0</v>
       </c>
       <c r="C124" t="n" s="23">
-        <v>78.0</v>
+        <v>22.0</v>
       </c>
       <c r="D124" t="n" s="23">
         <v>300.0</v>
@@ -13191,10 +13191,10 @@
         <v>15.0</v>
       </c>
       <c r="B125" t="n" s="23">
-        <v>78.0</v>
+        <v>23.0</v>
       </c>
       <c r="C125" t="n" s="23">
-        <v>78.0</v>
+        <v>23.0</v>
       </c>
       <c r="D125" t="n" s="23">
         <v>300.0</v>
@@ -13205,10 +13205,10 @@
         <v>16.0</v>
       </c>
       <c r="B126" t="n" s="23">
-        <v>90.0</v>
+        <v>23.0</v>
       </c>
       <c r="C126" t="n" s="23">
-        <v>90.0</v>
+        <v>23.0</v>
       </c>
       <c r="D126" t="n" s="23">
         <v>300.0</v>
@@ -13219,10 +13219,10 @@
         <v>17.0</v>
       </c>
       <c r="B127" t="n" s="23">
-        <v>103.0</v>
+        <v>23.0</v>
       </c>
       <c r="C127" t="n" s="23">
-        <v>103.0</v>
+        <v>23.0</v>
       </c>
       <c r="D127" t="n" s="23">
         <v>300.0</v>
@@ -13233,10 +13233,10 @@
         <v>18.0</v>
       </c>
       <c r="B128" t="n" s="23">
-        <v>115.0</v>
+        <v>24.0</v>
       </c>
       <c r="C128" t="n" s="23">
-        <v>115.0</v>
+        <v>24.0</v>
       </c>
       <c r="D128" t="n" s="23">
         <v>300.0</v>
@@ -13247,10 +13247,10 @@
         <v>19.0</v>
       </c>
       <c r="B129" t="n" s="23">
-        <v>116.0</v>
+        <v>24.0</v>
       </c>
       <c r="C129" t="n" s="23">
-        <v>116.0</v>
+        <v>24.0</v>
       </c>
       <c r="D129" t="n" s="23">
         <v>300.0</v>
@@ -13261,10 +13261,10 @@
         <v>20.0</v>
       </c>
       <c r="B130" t="n" s="23">
-        <v>119.0</v>
+        <v>24.0</v>
       </c>
       <c r="C130" t="n" s="23">
-        <v>119.0</v>
+        <v>24.0</v>
       </c>
       <c r="D130" t="n" s="23">
         <v>300.0</v>
@@ -13275,10 +13275,10 @@
         <v>21.0</v>
       </c>
       <c r="B131" t="n" s="23">
-        <v>121.0</v>
+        <v>24.0</v>
       </c>
       <c r="C131" t="n" s="23">
-        <v>121.0</v>
+        <v>24.0</v>
       </c>
       <c r="D131" t="n" s="23">
         <v>300.0</v>
@@ -13289,10 +13289,10 @@
         <v>22.0</v>
       </c>
       <c r="B132" t="n" s="23">
-        <v>134.0</v>
+        <v>25.0</v>
       </c>
       <c r="C132" t="n" s="23">
-        <v>134.0</v>
+        <v>25.0</v>
       </c>
       <c r="D132" t="n" s="23">
         <v>300.0</v>
@@ -13303,10 +13303,10 @@
         <v>23.0</v>
       </c>
       <c r="B133" t="n" s="23">
-        <v>134.0</v>
+        <v>25.0</v>
       </c>
       <c r="C133" t="n" s="23">
-        <v>134.0</v>
+        <v>25.0</v>
       </c>
       <c r="D133" t="n" s="23">
         <v>300.0</v>
@@ -13317,10 +13317,10 @@
         <v>24.0</v>
       </c>
       <c r="B134" t="n" s="23">
-        <v>136.0</v>
+        <v>26.0</v>
       </c>
       <c r="C134" t="n" s="23">
-        <v>136.0</v>
+        <v>26.0</v>
       </c>
       <c r="D134" t="n" s="23">
         <v>300.0</v>
@@ -13331,10 +13331,10 @@
         <v>25.0</v>
       </c>
       <c r="B135" t="n" s="23">
-        <v>137.0</v>
+        <v>28.0</v>
       </c>
       <c r="C135" t="n" s="23">
-        <v>137.0</v>
+        <v>28.0</v>
       </c>
       <c r="D135" t="n" s="23">
         <v>300.0</v>
@@ -13345,10 +13345,10 @@
         <v>26.0</v>
       </c>
       <c r="B136" t="n" s="23">
-        <v>138.0</v>
+        <v>28.0</v>
       </c>
       <c r="C136" t="n" s="23">
-        <v>138.0</v>
+        <v>28.0</v>
       </c>
       <c r="D136" t="n" s="23">
         <v>300.0</v>
@@ -13359,10 +13359,10 @@
         <v>27.0</v>
       </c>
       <c r="B137" t="n" s="23">
-        <v>139.0</v>
+        <v>29.0</v>
       </c>
       <c r="C137" t="n" s="23">
-        <v>139.0</v>
+        <v>29.0</v>
       </c>
       <c r="D137" t="n" s="23">
         <v>300.0</v>
@@ -13373,10 +13373,10 @@
         <v>28.0</v>
       </c>
       <c r="B138" t="n" s="23">
-        <v>156.0</v>
+        <v>31.0</v>
       </c>
       <c r="C138" t="n" s="23">
-        <v>156.0</v>
+        <v>31.0</v>
       </c>
       <c r="D138" t="n" s="23">
         <v>300.0</v>
@@ -13387,10 +13387,10 @@
         <v>29.0</v>
       </c>
       <c r="B139" t="n" s="23">
-        <v>159.0</v>
+        <v>32.0</v>
       </c>
       <c r="C139" t="n" s="23">
-        <v>159.0</v>
+        <v>32.0</v>
       </c>
       <c r="D139" t="n" s="23">
         <v>300.0</v>
@@ -13401,10 +13401,10 @@
         <v>30.0</v>
       </c>
       <c r="B140" t="n" s="23">
-        <v>165.0</v>
+        <v>32.0</v>
       </c>
       <c r="C140" t="n" s="23">
-        <v>165.0</v>
+        <v>32.0</v>
       </c>
       <c r="D140" t="n" s="23">
         <v>300.0</v>
@@ -13415,10 +13415,10 @@
         <v>31.0</v>
       </c>
       <c r="B141" t="n" s="23">
-        <v>173.0</v>
+        <v>33.0</v>
       </c>
       <c r="C141" t="n" s="23">
-        <v>173.0</v>
+        <v>33.0</v>
       </c>
       <c r="D141" t="n" s="23">
         <v>300.0</v>
@@ -13429,10 +13429,10 @@
         <v>32.0</v>
       </c>
       <c r="B142" t="n" s="23">
-        <v>177.0</v>
+        <v>35.0</v>
       </c>
       <c r="C142" t="n" s="23">
-        <v>177.0</v>
+        <v>35.0</v>
       </c>
       <c r="D142" t="n" s="23">
         <v>300.0</v>
@@ -13443,10 +13443,10 @@
         <v>33.0</v>
       </c>
       <c r="B143" t="n" s="23">
-        <v>180.0</v>
+        <v>35.0</v>
       </c>
       <c r="C143" t="n" s="23">
-        <v>180.0</v>
+        <v>35.0</v>
       </c>
       <c r="D143" t="n" s="23">
         <v>300.0</v>
@@ -13457,10 +13457,10 @@
         <v>34.0</v>
       </c>
       <c r="B144" t="n" s="23">
-        <v>180.0</v>
+        <v>37.0</v>
       </c>
       <c r="C144" t="n" s="23">
-        <v>180.0</v>
+        <v>37.0</v>
       </c>
       <c r="D144" t="n" s="23">
         <v>300.0</v>
@@ -13471,10 +13471,10 @@
         <v>35.0</v>
       </c>
       <c r="B145" t="n" s="23">
-        <v>190.0</v>
+        <v>38.0</v>
       </c>
       <c r="C145" t="n" s="23">
-        <v>190.0</v>
+        <v>38.0</v>
       </c>
       <c r="D145" t="n" s="23">
         <v>300.0</v>
@@ -13485,10 +13485,10 @@
         <v>36.0</v>
       </c>
       <c r="B146" t="n" s="23">
-        <v>194.0</v>
+        <v>38.0</v>
       </c>
       <c r="C146" t="n" s="23">
-        <v>194.0</v>
+        <v>38.0</v>
       </c>
       <c r="D146" t="n" s="23">
         <v>300.0</v>
@@ -13499,10 +13499,10 @@
         <v>37.0</v>
       </c>
       <c r="B147" t="n" s="23">
-        <v>203.0</v>
+        <v>38.0</v>
       </c>
       <c r="C147" t="n" s="23">
-        <v>203.0</v>
+        <v>38.0</v>
       </c>
       <c r="D147" t="n" s="23">
         <v>300.0</v>
@@ -13513,10 +13513,10 @@
         <v>38.0</v>
       </c>
       <c r="B148" t="n" s="23">
-        <v>203.0</v>
+        <v>39.0</v>
       </c>
       <c r="C148" t="n" s="23">
-        <v>203.0</v>
+        <v>39.0</v>
       </c>
       <c r="D148" t="n" s="23">
         <v>300.0</v>
@@ -13527,10 +13527,10 @@
         <v>39.0</v>
       </c>
       <c r="B149" t="n" s="23">
-        <v>203.0</v>
+        <v>39.0</v>
       </c>
       <c r="C149" t="n" s="23">
-        <v>203.0</v>
+        <v>39.0</v>
       </c>
       <c r="D149" t="n" s="23">
         <v>300.0</v>
@@ -13541,10 +13541,10 @@
         <v>40.0</v>
       </c>
       <c r="B150" t="n" s="23">
-        <v>207.0</v>
+        <v>39.0</v>
       </c>
       <c r="C150" t="n" s="23">
-        <v>207.0</v>
+        <v>39.0</v>
       </c>
       <c r="D150" t="n" s="23">
         <v>300.0</v>
@@ -13555,10 +13555,10 @@
         <v>41.0</v>
       </c>
       <c r="B151" t="n" s="23">
-        <v>216.0</v>
+        <v>39.0</v>
       </c>
       <c r="C151" t="n" s="23">
-        <v>216.0</v>
+        <v>39.0</v>
       </c>
       <c r="D151" t="n" s="23">
         <v>300.0</v>
@@ -13569,10 +13569,10 @@
         <v>42.0</v>
       </c>
       <c r="B152" t="n" s="23">
-        <v>216.0</v>
+        <v>39.0</v>
       </c>
       <c r="C152" t="n" s="23">
-        <v>216.0</v>
+        <v>39.0</v>
       </c>
       <c r="D152" t="n" s="23">
         <v>300.0</v>
@@ -13583,10 +13583,10 @@
         <v>43.0</v>
       </c>
       <c r="B153" t="n" s="23">
-        <v>221.0</v>
+        <v>40.0</v>
       </c>
       <c r="C153" t="n" s="23">
-        <v>221.0</v>
+        <v>40.0</v>
       </c>
       <c r="D153" t="n" s="23">
         <v>300.0</v>
@@ -13597,10 +13597,10 @@
         <v>44.0</v>
       </c>
       <c r="B154" t="n" s="23">
-        <v>235.0</v>
+        <v>40.0</v>
       </c>
       <c r="C154" t="n" s="23">
-        <v>235.0</v>
+        <v>40.0</v>
       </c>
       <c r="D154" t="n" s="23">
         <v>300.0</v>
@@ -13611,10 +13611,10 @@
         <v>45.0</v>
       </c>
       <c r="B155" t="n" s="23">
-        <v>242.0</v>
+        <v>41.0</v>
       </c>
       <c r="C155" t="n" s="23">
-        <v>242.0</v>
+        <v>41.0</v>
       </c>
       <c r="D155" t="n" s="23">
         <v>300.0</v>
@@ -13625,10 +13625,10 @@
         <v>46.0</v>
       </c>
       <c r="B156" t="n" s="23">
-        <v>243.0</v>
+        <v>42.0</v>
       </c>
       <c r="C156" t="n" s="23">
-        <v>243.0</v>
+        <v>42.0</v>
       </c>
       <c r="D156" t="n" s="23">
         <v>300.0</v>
@@ -13639,10 +13639,10 @@
         <v>47.0</v>
       </c>
       <c r="B157" t="n" s="23">
-        <v>250.0</v>
+        <v>42.0</v>
       </c>
       <c r="C157" t="n" s="23">
-        <v>250.0</v>
+        <v>42.0</v>
       </c>
       <c r="D157" t="n" s="23">
         <v>300.0</v>
@@ -13653,10 +13653,10 @@
         <v>48.0</v>
       </c>
       <c r="B158" t="n" s="23">
-        <v>257.0</v>
+        <v>43.0</v>
       </c>
       <c r="C158" t="n" s="23">
-        <v>257.0</v>
+        <v>43.0</v>
       </c>
       <c r="D158" t="n" s="23">
         <v>300.0</v>
@@ -13667,10 +13667,10 @@
         <v>49.0</v>
       </c>
       <c r="B159" t="n" s="23">
-        <v>257.0</v>
+        <v>43.0</v>
       </c>
       <c r="C159" t="n" s="23">
-        <v>257.0</v>
+        <v>43.0</v>
       </c>
       <c r="D159" t="n" s="23">
         <v>300.0</v>
